--- a/UI仕様書フォーマット.xlsx
+++ b/UI仕様書フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3033851-D038-4018-A320-F0910992AF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50620387-FD44-4718-BDD9-A302E7606144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{DF94D868-592B-4338-B7CA-B1CACE85BD54}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="292">
   <si>
     <t>ロゴ</t>
     <phoneticPr fontId="1"/>
@@ -2358,10 +2358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あとで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>割り当てを変えたい操作にカーソルを合わせて「決定」ボタン</t>
     <rPh sb="0" eb="1">
       <t>ワ</t>
@@ -2456,10 +2452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> - PlayerInterMediateState</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロックオンしてるかしてないか</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2467,6 +2459,89 @@
     <t>各状態</t>
     <rPh sb="0" eb="3">
       <t>カクジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 剣</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 自身のモデル</t>
+    <rPh sb="3" eb="5">
+      <t>ジシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 自身の状態</t>
+    <rPh sb="3" eb="5">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - コマンドの入力履歴</t>
+    <rPh sb="8" eb="12">
+      <t>ニュウリョクリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 体力</t>
+    <rPh sb="3" eb="5">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 必殺技ゲージ</t>
+    <rPh sb="3" eb="6">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 無敵かどうか</t>
+    <rPh sb="3" eb="5">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 今ロックオン可能かどうか</t>
+    <rPh sb="3" eb="4">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 描画されるかどうか</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - カメラのTargetPos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ロックオン中の敵(weak_ptr)</t>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10099,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D77A9B-E983-4CFF-99D2-3DFE3FFE329C}">
   <dimension ref="B2:AQ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10320,7 +10395,7 @@
     <row r="26" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U27" s="29"/>
       <c r="V27" s="30"/>
@@ -10359,7 +10434,7 @@
       <c r="AA28" s="28"/>
       <c r="AB28" s="28"/>
       <c r="AC28" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD28" s="28"/>
       <c r="AE28" s="28"/>
@@ -10378,11 +10453,11 @@
     </row>
     <row r="29" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U29" s="32"/>
       <c r="V29" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W29" s="28"/>
       <c r="X29" s="28" t="s">
@@ -10411,7 +10486,7 @@
     <row r="30" spans="2:43" x14ac:dyDescent="0.4">
       <c r="U30" s="32"/>
       <c r="V30" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
@@ -10586,9 +10661,6 @@
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
       <c r="U36" s="32"/>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
@@ -10646,21 +10718,21 @@
       <c r="Y38" s="28"/>
       <c r="Z38" s="28"/>
       <c r="AB38" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="28"/>
       <c r="AG38" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="16"/>
       <c r="AM38" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN38" s="15"/>
       <c r="AO38" s="15"/>
@@ -10930,14 +11002,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EBE926-26FA-4C66-A446-86701768A1CF}">
-  <dimension ref="B2:AE14"/>
+  <dimension ref="B2:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
     <col min="14" max="14" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10973,10 +11046,10 @@
     </row>
     <row r="11" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Y11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.4">
@@ -10991,7 +11064,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="31"/>
       <c r="M12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O12" s="29" t="s">
         <v>249</v>
@@ -11003,7 +11076,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="31"/>
       <c r="W12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y12" s="29" t="s">
         <v>251</v>
@@ -11040,18 +11113,18 @@
       <c r="AE13" s="33"/>
     </row>
     <row r="14" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="D14" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="33"/>
       <c r="O14" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -11066,6 +11139,126 @@
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="36"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D15" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D16" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D17" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D18" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D19" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D20" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D21" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D22" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D23" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/UI仕様書フォーマット.xlsx
+++ b/UI仕様書フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50620387-FD44-4718-BDD9-A302E7606144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEEDB3-65CD-44AE-A2AF-F176EBAB254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{DF94D868-592B-4338-B7CA-B1CACE85BD54}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
   <si>
     <t>ロゴ</t>
     <phoneticPr fontId="1"/>
@@ -2542,6 +2542,52 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣の当たり判定を有効化()</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効化()</t>
+    <rPh sb="0" eb="3">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣の見た目を有効化＆無効化()</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ムコウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11002,10 +11048,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EBE926-26FA-4C66-A446-86701768A1CF}">
-  <dimension ref="B2:AE24"/>
+  <dimension ref="B2:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11259,6 +11305,114 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
       <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D25" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D26" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D27" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D28" s="32"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D29" s="32"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D30" s="32"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D31" s="32"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="33"/>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D32" s="32"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="33"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D33" s="32"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="33"/>
+    </row>
+    <row r="34" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/UI仕様書フォーマット.xlsx
+++ b/UI仕様書フォーマット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEEDB3-65CD-44AE-A2AF-F176EBAB254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A83D1D-A254-413A-9E9F-24A4352F27A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{DF94D868-592B-4338-B7CA-B1CACE85BD54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF94D868-592B-4338-B7CA-B1CACE85BD54}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="304">
   <si>
     <t>ロゴ</t>
     <phoneticPr fontId="1"/>
@@ -2348,16 +2348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何か間違えても、キーコンフィグしなおせるようにしたい</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>割り当てを変えたい操作にカーソルを合わせて「決定」ボタン</t>
     <rPh sb="0" eb="1">
       <t>ワ</t>
@@ -2430,13 +2420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃：</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2588,6 +2571,64 @@
     </rPh>
     <rPh sb="10" eb="13">
       <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル上下でスクロール</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copilotに任せようとしてインクルードとかいろいろやってます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと待って</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3014,7 +3055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3099,9 +3140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3141,13 +3179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3165,7 +3197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5721,13 +5756,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5781,13 +5816,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -5841,13 +5876,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -5901,13 +5936,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>228598</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -5961,16 +5996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5985,8 +6020,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210049" y="3886200"/>
+          <a:off x="3781424" y="4286250"/>
           <a:ext cx="742950" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CD5BC2-FE34-4D14-B2F5-5D3A7B6CD39A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16240125" y="4333875"/>
+          <a:ext cx="695325" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -6278,13 +6373,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6338,13 +6433,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6696,8 +6791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF2094-FDE3-4A1F-95E1-A40B6EDBAFFC}">
   <dimension ref="B2:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7401,7 +7496,7 @@
   <dimension ref="A2:Q53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="J20:N26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7440,108 +7535,84 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="32"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28" t="s">
+      <c r="J11" s="31"/>
+      <c r="M11" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="33"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="32"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
+      <c r="B12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="M12" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="33"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="32"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28" t="s">
+      <c r="B13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="J13" s="31"/>
+      <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="32"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28" t="s">
+      <c r="B14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="J14" s="31"/>
+      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="33"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="32"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="31"/>
+      <c r="D15" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28" t="s">
+      <c r="F15" s="32"/>
+      <c r="J15" s="31"/>
+      <c r="M15" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="H16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
@@ -7560,50 +7631,41 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J21" s="32"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="N21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J22" s="32"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="N22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J23" s="32"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28" t="s">
+      <c r="J23" s="31"/>
+      <c r="L23" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J24" s="32"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="N24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="J25" s="32"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="N25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
@@ -7621,7 +7683,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7632,61 +7694,45 @@
     </row>
     <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="32"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="33"/>
+      <c r="C37" s="31"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C38" s="32"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="33"/>
+      <c r="C38" s="31"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="32"/>
-      <c r="D39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="32"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="33"/>
+      <c r="C40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="32"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="33"/>
+      <c r="C41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C42" s="32"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28" t="s">
+      <c r="C42" s="31"/>
+      <c r="E42" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F53" t="s">
@@ -7704,7 +7750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B6AF9E-26D2-49B1-BC69-238CDC134E81}">
   <dimension ref="B2:AR66"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -7748,263 +7794,117 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
       <c r="V13">
         <v>2</v>
       </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="31"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="D14" s="32"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="33"/>
+      <c r="D14" s="31"/>
+      <c r="Q14" s="32"/>
       <c r="S14" t="s">
         <v>164</v>
       </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28" t="s">
+      <c r="W14" s="31"/>
+      <c r="AB14" t="s">
         <v>154</v>
       </c>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="33"/>
+      <c r="AK14" s="32"/>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="D15" s="32"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="33"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28" t="s">
+      <c r="D15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="W15" s="31"/>
+      <c r="AH15" t="s">
         <v>153</v>
       </c>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="33"/>
+      <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="D16" s="32"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="33"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="33"/>
+      <c r="D16" s="31"/>
+      <c r="Q16" s="32"/>
+      <c r="W16" s="31"/>
+      <c r="AK16" s="32"/>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D17" s="32"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28" t="s">
+      <c r="D17" s="31"/>
+      <c r="O17" t="s">
         <v>159</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="33"/>
+      <c r="Q17" s="32"/>
+      <c r="W17" s="31"/>
+      <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D18" s="32"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="33"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="33"/>
+      <c r="D18" s="31"/>
+      <c r="Q18" s="32"/>
+      <c r="W18" s="31"/>
+      <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D19" s="32"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="33"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="33"/>
+      <c r="D19" s="31"/>
+      <c r="Q19" s="32"/>
+      <c r="W19" s="31"/>
+      <c r="AK19" s="32"/>
     </row>
     <row r="20" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="36"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="35"/>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
@@ -8035,181 +7935,83 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
       <c r="V27">
         <v>4</v>
       </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="31"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D28" s="32"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28" t="s">
+      <c r="D28" s="31"/>
+      <c r="I28" t="s">
         <v>170</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
       <c r="N28" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="23"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="33"/>
+      <c r="W28" s="31"/>
+      <c r="AJ28" s="32"/>
     </row>
     <row r="29" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D29" s="32"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="D29" s="31"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="33"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="33"/>
+      <c r="Q29" s="32"/>
+      <c r="W29" s="31"/>
+      <c r="AJ29" s="32"/>
     </row>
     <row r="30" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D30" s="32"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="D30" s="31"/>
       <c r="N30" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="32"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="33"/>
+      <c r="W30" s="31"/>
+      <c r="AJ30" s="32"/>
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D31" s="32"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="D31" s="31"/>
       <c r="N31" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="33" t="s">
+      <c r="Q31" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="32"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="33"/>
+      <c r="W31" s="31"/>
+      <c r="AJ31" s="32"/>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="D32" s="32"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="D32" s="31"/>
       <c r="N32" s="25" t="s">
         <v>247</v>
       </c>
@@ -8218,80 +8020,44 @@
       <c r="Q32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="W32" s="32"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="33"/>
+      <c r="W32" s="31"/>
+      <c r="AJ32" s="32"/>
     </row>
     <row r="33" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D33" s="32"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="33"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="33"/>
+      <c r="D33" s="31"/>
+      <c r="Q33" s="32"/>
+      <c r="W33" s="31"/>
+      <c r="AJ33" s="32"/>
     </row>
     <row r="34" spans="3:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="36"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="35"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="35"/>
     </row>
     <row r="36" spans="3:44" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
@@ -8330,253 +8096,112 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
       <c r="V41">
         <v>5</v>
       </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="31"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="30"/>
     </row>
     <row r="42" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D42" s="32"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="33"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="33"/>
+      <c r="D42" s="31"/>
+      <c r="Q42" s="32"/>
+      <c r="W42" s="31"/>
+      <c r="AJ42" s="32"/>
     </row>
     <row r="43" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D43" s="32"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28" t="s">
+      <c r="D43" s="31"/>
+      <c r="I43" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="33"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="33"/>
+      <c r="Q43" s="32"/>
+      <c r="W43" s="31"/>
+      <c r="AJ43" s="32"/>
     </row>
     <row r="44" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D44" s="32"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="33"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="33"/>
+      <c r="D44" s="31"/>
+      <c r="Q44" s="32"/>
+      <c r="W44" s="31"/>
+      <c r="AJ44" s="32"/>
       <c r="AR44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="45" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D45" s="32"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="33"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28" t="s">
+      <c r="D45" s="31"/>
+      <c r="Q45" s="32"/>
+      <c r="W45" s="31"/>
+      <c r="AH45" t="s">
         <v>159</v>
       </c>
-      <c r="AJ45" s="33"/>
+      <c r="AJ45" s="32"/>
     </row>
     <row r="46" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D46" s="32"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="33"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="33"/>
+      <c r="D46" s="31"/>
+      <c r="Q46" s="32"/>
+      <c r="W46" s="31"/>
+      <c r="AJ46" s="32"/>
     </row>
     <row r="47" spans="3:44" x14ac:dyDescent="0.4">
-      <c r="D47" s="32"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="33"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="33"/>
+      <c r="D47" s="31"/>
+      <c r="Q47" s="32"/>
+      <c r="W47" s="31"/>
+      <c r="AJ47" s="32"/>
     </row>
     <row r="48" spans="3:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="36"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="35"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="35"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
@@ -8604,141 +8229,84 @@
       <c r="C56">
         <v>6</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="30"/>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D57" s="32"/>
-      <c r="E57" s="28" t="s">
+      <c r="D57" s="31"/>
+      <c r="E57" t="s">
         <v>182</v>
       </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28" t="s">
+      <c r="L57" t="s">
         <v>184</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="33"/>
+      <c r="Q57" s="32"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D58" s="32"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="33"/>
+      <c r="D58" s="31"/>
+      <c r="Q58" s="32"/>
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D59" s="32"/>
-      <c r="E59" s="28" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" t="s">
         <v>185</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="33"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D60" s="32"/>
-      <c r="E60" s="41">
+      <c r="D60" s="31"/>
+      <c r="E60" s="40">
         <v>20</v>
       </c>
       <c r="I60" t="s">
         <v>183</v>
       </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D61" s="32"/>
-      <c r="E61" s="28" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="33"/>
+      <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="D62" s="32"/>
+      <c r="D62" s="31"/>
       <c r="E62" t="s">
         <v>187</v>
       </c>
       <c r="I62" t="s">
         <v>183</v>
       </c>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="3:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="36"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="35"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
@@ -8883,203 +8451,93 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="30"/>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="C24" s="32"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="33"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="33"/>
+      <c r="C24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="AB24" s="31"/>
+      <c r="AN24" s="32"/>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="C25" s="32"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="33"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="33"/>
+      <c r="C25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="AB25" s="31"/>
+      <c r="AN25" s="32"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="C26" s="32"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="33"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="33"/>
+      <c r="C26" s="31"/>
+      <c r="O26" s="32"/>
+      <c r="AB26" s="31"/>
+      <c r="AN26" s="32"/>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="C27" s="32"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="33"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="AB27" s="31"/>
+      <c r="AN27" s="32"/>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="C28" s="32"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="33"/>
+      <c r="C28" s="31"/>
+      <c r="O28" s="32"/>
       <c r="Q28" t="s">
         <v>150</v>
       </c>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="33"/>
+      <c r="AB28" s="31"/>
+      <c r="AN28" s="32"/>
     </row>
     <row r="29" spans="2:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="36"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="35"/>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F31" t="s">
@@ -9111,236 +8569,110 @@
     </row>
     <row r="40" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="31"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="30"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C42" s="32"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
+      <c r="C42" s="31"/>
       <c r="O42" s="24" t="s">
         <v>138</v>
       </c>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="33"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="32"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C43" s="32"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
+      <c r="C43" s="31"/>
       <c r="O43" s="19"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="33"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="32"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C44" s="32"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28" t="s">
+      <c r="C44" s="31"/>
+      <c r="E44" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
       <c r="O44" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P44" s="28" t="s">
+      <c r="P44" t="s">
         <v>141</v>
       </c>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28" t="s">
+      <c r="R44" t="s">
         <v>142</v>
       </c>
-      <c r="S44" s="39"/>
-      <c r="T44" s="33"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="32"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C45" s="32"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
+      <c r="C45" s="31"/>
       <c r="O45" s="25"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="33"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="32"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C46" s="32"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="33"/>
+      <c r="C46" s="31"/>
+      <c r="T46" s="32"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C47" s="32"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="33"/>
+      <c r="C47" s="31"/>
+      <c r="T47" s="32"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C48" s="32"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28" t="s">
+      <c r="C48" s="31"/>
+      <c r="M48" t="s">
         <v>139</v>
       </c>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="33"/>
+      <c r="T48" s="32"/>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C49" s="32"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="33"/>
+      <c r="C49" s="31"/>
+      <c r="T49" s="32"/>
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C50" s="32"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="33"/>
+      <c r="C50" s="31"/>
+      <c r="T50" s="32"/>
     </row>
     <row r="51" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="36"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="35"/>
     </row>
     <row r="53" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
@@ -9368,8 +8700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B813E363-7E54-4E49-AB03-76A058D15B9C}">
   <dimension ref="B2:CA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="BD22" sqref="BD22"/>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="BJ26" sqref="BJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9409,401 +8741,229 @@
     </row>
     <row r="10" spans="2:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:79" x14ac:dyDescent="0.4">
-      <c r="AK11">
+      <c r="AH11">
         <v>3</v>
       </c>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
       <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="31"/>
     </row>
     <row r="12" spans="2:79" x14ac:dyDescent="0.4">
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="33"/>
-      <c r="AY12" t="s">
+      <c r="AI12" s="31"/>
+      <c r="AT12" s="32"/>
+      <c r="AV12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:79" x14ac:dyDescent="0.4">
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="33"/>
+      <c r="AI13" s="31"/>
+      <c r="AT13" s="32"/>
     </row>
     <row r="14" spans="2:79" x14ac:dyDescent="0.4">
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28" t="s">
+      <c r="AI14" s="31"/>
+      <c r="AM14" t="s">
         <v>199</v>
       </c>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="33"/>
+      <c r="AT14" s="32"/>
     </row>
     <row r="15" spans="2:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="33"/>
+      <c r="AI15" s="31"/>
+      <c r="AT15" s="32"/>
     </row>
     <row r="16" spans="2:79" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="31"/>
-      <c r="V16">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="S16">
         <v>2</v>
       </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
       <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
       <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="31"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="33"/>
-      <c r="AZ16">
+      <c r="AI16" s="31"/>
+      <c r="AT16" s="32"/>
+      <c r="AW16">
         <v>5</v>
       </c>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
       <c r="BA16" s="29"/>
-      <c r="BB16" s="30"/>
-      <c r="BC16" s="30"/>
-      <c r="BD16" s="30"/>
-      <c r="BE16" s="30"/>
-      <c r="BF16" s="30"/>
-      <c r="BG16" s="30"/>
-      <c r="BH16" s="30"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="29"/>
+      <c r="BE16" s="29"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
       <c r="BI16" s="30"/>
-      <c r="BJ16" s="30"/>
-      <c r="BK16" s="30"/>
-      <c r="BL16" s="31"/>
       <c r="BO16">
         <v>6</v>
       </c>
-      <c r="BP16" s="29"/>
-      <c r="BQ16" s="30"/>
-      <c r="BR16" s="30"/>
-      <c r="BS16" s="30"/>
-      <c r="BT16" s="30"/>
-      <c r="BU16" s="30"/>
-      <c r="BV16" s="30"/>
-      <c r="BW16" s="30"/>
-      <c r="BX16" s="30"/>
-      <c r="BY16" s="30"/>
-      <c r="BZ16" s="30"/>
-      <c r="CA16" s="31"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="29"/>
+      <c r="BR16" s="29"/>
+      <c r="BS16" s="29"/>
+      <c r="BT16" s="29"/>
+      <c r="BU16" s="29"/>
+      <c r="BV16" s="29"/>
+      <c r="BW16" s="29"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="29"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="30"/>
     </row>
     <row r="17" spans="3:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" t="s">
         <v>226</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="33"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="33"/>
+      <c r="N17" s="32"/>
+      <c r="T17" s="31"/>
+      <c r="AE17" s="32"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
       <c r="AL17" s="34"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
       <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="36"/>
-      <c r="BA17" s="32"/>
-      <c r="BB17" s="28" t="s">
+      <c r="AX17" s="31"/>
+      <c r="AY17" t="s">
         <v>201</v>
       </c>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="28" t="s">
+      <c r="BE17" t="s">
         <v>184</v>
       </c>
-      <c r="BI17" s="28"/>
-      <c r="BJ17" s="28"/>
-      <c r="BK17" s="28"/>
-      <c r="BL17" s="33"/>
-      <c r="BP17" s="32"/>
-      <c r="BQ17" s="28"/>
-      <c r="BR17" s="28"/>
-      <c r="BS17" s="28" t="s">
+      <c r="BI17" s="32"/>
+      <c r="BP17" s="31"/>
+      <c r="BS17" t="s">
         <v>221</v>
       </c>
-      <c r="BT17" s="28"/>
-      <c r="BU17" s="28" t="s">
+      <c r="BU17" t="s">
         <v>222</v>
       </c>
-      <c r="BV17" s="28"/>
-      <c r="BW17" s="28"/>
-      <c r="BX17" s="28"/>
-      <c r="BY17" s="28"/>
-      <c r="BZ17" s="28"/>
-      <c r="CA17" s="33"/>
+      <c r="CA17" s="32"/>
     </row>
     <row r="18" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="C18" s="32"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="33"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="33"/>
-      <c r="BA18" s="32"/>
-      <c r="BB18" s="28" t="s">
+      <c r="C18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="T18" s="31"/>
+      <c r="AE18" s="32"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" t="s">
         <v>202</v>
       </c>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28" t="s">
+      <c r="BC18" t="s">
         <v>27</v>
       </c>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="33"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="28"/>
-      <c r="BR18" s="28"/>
-      <c r="BS18" s="28"/>
-      <c r="BT18" s="28"/>
-      <c r="BU18" s="28"/>
-      <c r="BV18" s="28"/>
-      <c r="BW18" s="28"/>
-      <c r="BX18" s="28"/>
-      <c r="BY18" s="28"/>
-      <c r="BZ18" s="28"/>
-      <c r="CA18" s="33"/>
+      <c r="BI18" s="32"/>
+      <c r="BP18" s="31"/>
+      <c r="CA18" s="32"/>
     </row>
     <row r="19" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="C19" s="32"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="33"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="N19" s="32"/>
+      <c r="T19" s="31"/>
+      <c r="AE19" s="32"/>
+      <c r="AK19" t="s">
+        <v>196</v>
+      </c>
       <c r="AN19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ19" t="s">
         <v>227</v>
       </c>
-      <c r="BA19" s="32"/>
-      <c r="BB19" s="28" t="s">
+      <c r="AX19" s="31"/>
+      <c r="AY19" t="s">
         <v>204</v>
       </c>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="28" t="s">
+      <c r="BF19" t="s">
         <v>27</v>
       </c>
-      <c r="BJ19" s="28"/>
-      <c r="BK19" s="28"/>
-      <c r="BL19" s="33"/>
-      <c r="BP19" s="32"/>
-      <c r="BR19" s="28"/>
-      <c r="BS19" s="47"/>
-      <c r="BT19" s="48"/>
-      <c r="BU19" s="48"/>
-      <c r="BV19" s="48"/>
-      <c r="BW19" s="49"/>
-      <c r="BX19" s="28"/>
-      <c r="BY19" s="28" t="s">
+      <c r="BI19" s="32"/>
+      <c r="BP19" s="31"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="45"/>
+      <c r="BU19" s="45"/>
+      <c r="BV19" s="45"/>
+      <c r="BW19" s="46"/>
+      <c r="BY19" t="s">
         <v>223</v>
       </c>
-      <c r="BZ19" s="28"/>
-      <c r="CA19" s="33"/>
+      <c r="CA19" s="32"/>
     </row>
     <row r="20" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="C20" s="32"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="33"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="33"/>
-      <c r="BA20" s="32"/>
-      <c r="BB20" s="43" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="N20" s="32"/>
+      <c r="T20" s="31"/>
+      <c r="AE20" s="32"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="BD20" s="28" t="s">
+      <c r="BA20" t="s">
         <v>27</v>
       </c>
-      <c r="BE20" s="28"/>
-      <c r="BF20" s="28"/>
-      <c r="BG20" s="28"/>
-      <c r="BH20" s="28"/>
-      <c r="BI20" s="28"/>
-      <c r="BJ20" s="28"/>
-      <c r="BK20" s="28"/>
-      <c r="BL20" s="33"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="28"/>
-      <c r="BR20" s="28"/>
-      <c r="BS20" s="28"/>
-      <c r="BT20" s="28"/>
-      <c r="BU20" s="28"/>
-      <c r="BV20" s="28"/>
-      <c r="BW20" s="28"/>
-      <c r="BX20" s="28"/>
-      <c r="BY20" s="28"/>
-      <c r="BZ20" s="28"/>
-      <c r="CA20" s="33"/>
+      <c r="BI20" s="32"/>
+      <c r="BP20" s="31"/>
+      <c r="CA20" s="32"/>
     </row>
     <row r="21" spans="3:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -9812,160 +8972,112 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="33"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="33"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="28" t="s">
+      <c r="L21" s="39"/>
+      <c r="N21" s="32"/>
+      <c r="T21" s="31"/>
+      <c r="AE21" s="32"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" t="s">
         <v>186</v>
       </c>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="28"/>
-      <c r="BE21" s="28"/>
-      <c r="BF21" s="28"/>
-      <c r="BG21" s="28"/>
-      <c r="BH21" s="28"/>
-      <c r="BI21" s="28"/>
-      <c r="BJ21" s="28"/>
-      <c r="BK21" s="28"/>
-      <c r="BL21" s="33"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="28"/>
-      <c r="BR21" s="28"/>
-      <c r="BS21" s="28"/>
-      <c r="BT21" s="28"/>
-      <c r="BU21" s="28"/>
-      <c r="BV21" s="28"/>
-      <c r="BW21" s="28"/>
-      <c r="BX21" s="28"/>
-      <c r="BY21" s="28"/>
-      <c r="BZ21" s="28"/>
-      <c r="CA21" s="33"/>
+      <c r="BI21" s="32"/>
+      <c r="BP21" s="31"/>
+      <c r="CA21" s="32"/>
     </row>
     <row r="22" spans="3:79" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
       <c r="W22" s="34"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
       <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="36"/>
-      <c r="AK22">
+      <c r="AH22">
         <v>4</v>
       </c>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
       <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="31"/>
-      <c r="BA22" s="34"/>
-      <c r="BB22" s="44" t="s">
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35" t="s">
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35" t="s">
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35" t="s">
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="36"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="36"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="35"/>
+      <c r="BP22" s="33"/>
+      <c r="BQ22" s="34"/>
+      <c r="BR22" s="34"/>
+      <c r="BS22" s="34"/>
+      <c r="BT22" s="34"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="34"/>
+      <c r="BW22" s="34"/>
+      <c r="BX22" s="34"/>
+      <c r="BY22" s="34"/>
+      <c r="BZ22" s="34"/>
+      <c r="CA22" s="35"/>
     </row>
     <row r="23" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="33"/>
+      <c r="AI23" s="31"/>
+      <c r="AT23" s="32"/>
     </row>
     <row r="24" spans="3:79" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>225</v>
       </c>
-      <c r="X24" t="s">
+      <c r="U24" t="s">
         <v>195</v>
       </c>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AP24" s="28" t="s">
+      <c r="AI24" s="31"/>
+      <c r="AM24" t="s">
         <v>198</v>
       </c>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="33"/>
-      <c r="BC24" t="s">
+      <c r="AT24" s="32"/>
+      <c r="AZ24" t="s">
         <v>1</v>
       </c>
       <c r="BR24" t="s">
@@ -9973,50 +9085,32 @@
       </c>
     </row>
     <row r="25" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="33"/>
+      <c r="AI25" s="31"/>
+      <c r="AT25" s="32"/>
       <c r="BR25" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="33"/>
+      <c r="AI26" s="31"/>
+      <c r="AT26" s="32"/>
     </row>
     <row r="27" spans="3:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
       <c r="AL27" s="34"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
       <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="36"/>
     </row>
     <row r="29" spans="3:79" x14ac:dyDescent="0.4">
-      <c r="AN29" t="s">
+      <c r="AK29" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10032,7 +9126,7 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10057,138 +9151,103 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" t="s">
         <v>218</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="42" t="s">
+      <c r="L9" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="32"/>
-      <c r="D10" s="28">
+      <c r="C10" s="31"/>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="33"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C11" s="32"/>
-      <c r="D11" s="28">
+      <c r="C11" s="31"/>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
+      <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C12" s="32"/>
-      <c r="D12" s="42">
+      <c r="C12" s="31"/>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="33"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C13" s="32"/>
-      <c r="D13" s="42">
+      <c r="C13" s="31"/>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="42" t="s">
+      <c r="I13" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
@@ -10218,10 +9277,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D77A9B-E983-4CFF-99D2-3DFE3FFE329C}">
-  <dimension ref="B2:AQ39"/>
+  <dimension ref="B2:AR39"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10246,139 +9305,75 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="P8">
         <v>2</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="33"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="Q9" s="31"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="32"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="33"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="Q10" s="31"/>
+      <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="32"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="Q11" s="31"/>
+      <c r="Z11" s="32"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="32"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="33"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="Q12" s="31"/>
+      <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="35"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
@@ -10396,12 +9391,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="2:43" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:44" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>252</v>
       </c>
@@ -10409,7 +9404,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>253</v>
       </c>
@@ -10417,7 +9412,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>254</v>
       </c>
@@ -10425,7 +9420,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>255</v>
       </c>
@@ -10433,382 +9428,428 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="2:43" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:44" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>269</v>
-      </c>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
+        <v>268</v>
+      </c>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
       <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="31"/>
-    </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+    </row>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>263</v>
       </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="33"/>
-    </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="U28" s="31"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>270</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="U30" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="U31" s="31"/>
+      <c r="V31" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
-      <c r="AP29" s="28"/>
-      <c r="AQ29" s="33"/>
-    </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.4">
-      <c r="U30" s="32"/>
-      <c r="V30" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28" t="s">
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="U32" s="31"/>
+      <c r="V32" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="Z30" s="28" t="s">
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="33"/>
-    </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.4">
-      <c r="U31" s="32"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="33"/>
-    </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>268</v>
-      </c>
-      <c r="U32" s="32"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="33"/>
-    </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>265</v>
       </c>
-      <c r="U33" s="32"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="33"/>
-    </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="U33" s="31"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>266</v>
       </c>
-      <c r="U34" s="32"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="33"/>
-    </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="U34" s="31"/>
+      <c r="V34" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="48"/>
+      <c r="AP34" s="48"/>
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="48"/>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>267</v>
       </c>
-      <c r="U35" s="32"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="33"/>
-    </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="U36" s="32"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="33"/>
-    </row>
-    <row r="37" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U37" s="32"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="33"/>
-    </row>
-    <row r="38" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U38" s="32"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AB38" s="17" t="s">
+      <c r="U35" s="31"/>
+      <c r="V35" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="48"/>
+      <c r="AP35" s="48"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="48"/>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="U36" s="31"/>
+      <c r="V36" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="48"/>
+      <c r="AH36" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="48"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+    </row>
+    <row r="37" spans="2:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U37" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+    </row>
+    <row r="38" spans="2:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U38" s="31"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="17" t="s">
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="16"/>
-      <c r="AM38" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="15"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="33"/>
-    </row>
-    <row r="39" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U39" s="34"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="48"/>
+      <c r="AP38" s="48"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+    </row>
+    <row r="39" spans="2:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U39" s="33"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
       <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="36"/>
+      <c r="AO39" s="48"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10847,177 +9888,121 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="30"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>235</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="33"/>
+      <c r="K9" s="31"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="Y9" s="32"/>
       <c r="AB9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K10" s="32"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="28"/>
-      <c r="Q10" s="28" t="s">
+      <c r="K10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="Q10" t="s">
         <v>229</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="33"/>
+      <c r="V10" s="32"/>
+      <c r="Y10" s="32"/>
       <c r="AF10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K11" s="32"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="V11" s="32"/>
+      <c r="Y11" s="32"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K12" s="32"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="33"/>
+      <c r="K12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="V12" s="32"/>
+      <c r="Y12" s="32"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K13" s="32"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="50" t="s">
+      <c r="K13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="P13" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="33"/>
+      <c r="V13" s="32"/>
+      <c r="Y13" s="32"/>
       <c r="AB13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K14" s="32"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="32"/>
-      <c r="P14" s="28" t="s">
+      <c r="K14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="P14" t="s">
         <v>231</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="T14" s="28" t="s">
+      <c r="T14" t="s">
         <v>230</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="33"/>
+      <c r="V14" s="32"/>
+      <c r="Y14" s="32"/>
       <c r="AF14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K15" s="32"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="36"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="35"/>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L18" t="s">
@@ -11048,10 +10033,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EBE926-26FA-4C66-A446-86701768A1CF}">
-  <dimension ref="B2:AE34"/>
+  <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11090,329 +10075,221 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O11" t="s">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="M15" t="s">
+        <v>275</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="W15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="30"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="O16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="Y16" s="31"/>
+      <c r="AE16" s="32"/>
+    </row>
+    <row r="17" spans="4:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="O17" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="35"/>
+    </row>
+    <row r="18" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D18" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D19" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D20" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="Y11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D12" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="M12" t="s">
-        <v>277</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31"/>
-      <c r="W12" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="31"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D13" s="32"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="33"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="33"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="33"/>
-    </row>
-    <row r="14" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="32" t="s">
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D21" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D22" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="33"/>
-      <c r="O14" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="36"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D15" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D16" s="32" t="s">
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D23" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D24" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D25" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D26" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="4:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D28" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D17" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D18" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D19" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D20" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D21" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D22" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D23" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="34" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D25" s="29" t="s">
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D30" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D26" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D27" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D28" s="32"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D29" s="32"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D30" s="32"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D31" s="32"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="33"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D32" s="32"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="33"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D31" s="31"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D32" s="31"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D33" s="32"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="33"/>
-    </row>
-    <row r="34" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
+      <c r="D33" s="31"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D34" s="31"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D35" s="31"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D36" s="31"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11433,15 +10310,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005F0D9E193D28814892BA96752E68B42F" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="215e7263a294d62634617b65be5e81fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c" xmlns:ns3="26553de7-2a3a-444c-a024-df4cb947fd03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6aa5db53fbf3e176f355664c77c2c9ef" ns2:_="" ns3:_="">
     <xsd:import namespace="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
@@ -11642,6 +10510,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5133F06B-0556-4887-9A4E-22EA032BC896}">
   <ds:schemaRefs>
@@ -11654,14 +10531,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF99FEAD-80A2-47F3-ACCA-BE8E1C14FBEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49EC609C-331C-4105-80CF-9D6A995C6BFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11678,4 +10547,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF99FEAD-80A2-47F3-ACCA-BE8E1C14FBEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>